--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_Workspace\ResrAssured\API_RestAssured_E2E_FrameWork_24112019\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_Workspace\ResrAssured\E2E_API_Automation-27-11-2019\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>rest2</t>
+  </si>
+  <si>
+    <t>expectedStatusCode</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -108,9 +114,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -392,40 +401,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.08984375" customWidth="1"/>
     <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_Workspace\ResrAssured\E2E_API_Automation-27-11-2019\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_Workspace\ResrAssured\E2E_API_Automation_27112019\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="validateAPIWithValidSecretKey" sheetId="1" r:id="rId1"/>
-    <sheet name="validateAPIWithInvalidSecretKey" sheetId="2" r:id="rId2"/>
-    <sheet name="validateCreateUserWithValidData" sheetId="4" r:id="rId3"/>
-    <sheet name="validateAPIWithValidParameters" sheetId="3" r:id="rId4"/>
-    <sheet name="validateAPIWithInvalidParameter" sheetId="5" r:id="rId5"/>
+    <sheet name="TestDataSheet" sheetId="6" r:id="rId2"/>
+    <sheet name="validateAPIWithInvalidSecretKey" sheetId="2" r:id="rId3"/>
+    <sheet name="validateCreateUserWithValidData" sheetId="4" r:id="rId4"/>
+    <sheet name="validateAPIWithValidParameters" sheetId="3" r:id="rId5"/>
+    <sheet name="validateAPIWithInvalidParameter" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>email</t>
   </si>
@@ -70,6 +71,21 @@
   </si>
   <si>
     <t>200</t>
+  </si>
+  <si>
+    <t>validateAPIWithValidSecretKey</t>
+  </si>
+  <si>
+    <t>endOfTestData</t>
+  </si>
+  <si>
+    <t>rest3@gmail.com</t>
+  </si>
+  <si>
+    <t>rest4@gmail.com</t>
+  </si>
+  <si>
+    <t>validateAPIWithoutValidSecretKey</t>
   </si>
 </sst>
 </file>
@@ -93,15 +109,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,17 +131,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,6 +500,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A9" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -503,7 +666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -533,53 +696,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -608,6 +724,53 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -504,7 +504,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
